--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3913.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3913.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.543294647504049</v>
+        <v>2.134157180786133</v>
       </c>
       <c r="B1">
-        <v>2.016318766574363</v>
+        <v>2.439523458480835</v>
       </c>
       <c r="C1">
-        <v>3.133833778568771</v>
+        <v>2.485842943191528</v>
       </c>
       <c r="D1">
-        <v>8.034678187822854</v>
+        <v>3.255719184875488</v>
       </c>
       <c r="E1">
-        <v>1.128095763430103</v>
+        <v>2.33658504486084</v>
       </c>
     </row>
   </sheetData>
